--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="H2">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="I2">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="J2">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>2618.404602193077</v>
+        <v>54.14272242458845</v>
       </c>
       <c r="R2">
-        <v>23565.64141973769</v>
+        <v>487.284501821296</v>
       </c>
       <c r="S2">
-        <v>0.2028459420068391</v>
+        <v>0.01311279676681754</v>
       </c>
       <c r="T2">
-        <v>0.2028459420068391</v>
+        <v>0.01311279676681754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="H3">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="I3">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="J3">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>1561.431665031829</v>
+        <v>21.224349464434</v>
       </c>
       <c r="R3">
-        <v>14052.88498528646</v>
+        <v>191.019145179906</v>
       </c>
       <c r="S3">
-        <v>0.1209630004115512</v>
+        <v>0.005140313759114622</v>
       </c>
       <c r="T3">
-        <v>0.1209630004115512</v>
+        <v>0.005140313759114622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="H4">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="I4">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="J4">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>564.3202613189495</v>
+        <v>8.579143633314001</v>
       </c>
       <c r="R4">
-        <v>5078.882351870546</v>
+        <v>77.21229269982601</v>
       </c>
       <c r="S4">
-        <v>0.04371748923176813</v>
+        <v>0.002077778173302453</v>
       </c>
       <c r="T4">
-        <v>0.04371748923176812</v>
+        <v>0.002077778173302452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="H5">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="I5">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="J5">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>1627.694381079408</v>
+        <v>22.50081834597422</v>
       </c>
       <c r="R5">
-        <v>14649.24942971467</v>
+        <v>202.507365113768</v>
       </c>
       <c r="S5">
-        <v>0.1260963258897241</v>
+        <v>0.005449461069653303</v>
       </c>
       <c r="T5">
-        <v>0.126096325889724</v>
+        <v>0.005449461069653301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.517626</v>
       </c>
       <c r="I6">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="J6">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>44.48732399650978</v>
+        <v>67.67499169166756</v>
       </c>
       <c r="R6">
-        <v>400.3859159685881</v>
+        <v>609.0749252250081</v>
       </c>
       <c r="S6">
-        <v>0.003446401345260875</v>
+        <v>0.0163901697681514</v>
       </c>
       <c r="T6">
-        <v>0.003446401345260875</v>
+        <v>0.0163901697681514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.517626</v>
       </c>
       <c r="I7">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="J7">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
         <v>26.529099560282</v>
@@ -883,10 +883,10 @@
         <v>238.761896042538</v>
       </c>
       <c r="S7">
-        <v>0.002055190472240781</v>
+        <v>0.006425068326129535</v>
       </c>
       <c r="T7">
-        <v>0.002055190472240781</v>
+        <v>0.006425068326129535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.517626</v>
       </c>
       <c r="I8">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="J8">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>9.587936975845558</v>
+        <v>10.723389000522</v>
       </c>
       <c r="R8">
-        <v>86.29143278261002</v>
+        <v>96.51050100469801</v>
       </c>
       <c r="S8">
-        <v>0.0007427706574219444</v>
+        <v>0.002597091803265387</v>
       </c>
       <c r="T8">
-        <v>0.0007427706574219443</v>
+        <v>0.002597091803265387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.517626</v>
       </c>
       <c r="I9">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="J9">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>27.65491904411133</v>
+        <v>28.12460523647378</v>
       </c>
       <c r="R9">
-        <v>248.894271397002</v>
+        <v>253.121447128264</v>
       </c>
       <c r="S9">
-        <v>0.002142406906834481</v>
+        <v>0.00681148298603783</v>
       </c>
       <c r="T9">
-        <v>0.002142406906834481</v>
+        <v>0.006811482986037829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="H10">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="I10">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="J10">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>80.54386411213177</v>
+        <v>139.1273836592987</v>
       </c>
       <c r="R10">
-        <v>724.894777009186</v>
+        <v>1252.146452933688</v>
       </c>
       <c r="S10">
-        <v>0.006239675860259382</v>
+        <v>0.03369518607351971</v>
       </c>
       <c r="T10">
-        <v>0.006239675860259382</v>
+        <v>0.0336951860735197</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="H11">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="I11">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="J11">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>48.03067476407899</v>
+        <v>54.538968094377</v>
       </c>
       <c r="R11">
-        <v>432.2760728767109</v>
+        <v>490.8507128493931</v>
       </c>
       <c r="S11">
-        <v>0.003720902208766168</v>
+        <v>0.01320876329204918</v>
       </c>
       <c r="T11">
-        <v>0.003720902208766168</v>
+        <v>0.01320876329204918</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="H12">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="I12">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="J12">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>17.35886593131056</v>
+        <v>22.045323070017</v>
       </c>
       <c r="R12">
-        <v>156.229793381795</v>
+        <v>198.407907630153</v>
       </c>
       <c r="S12">
-        <v>0.001344778995980191</v>
+        <v>0.005339144914232941</v>
       </c>
       <c r="T12">
-        <v>0.00134477899598019</v>
+        <v>0.005339144914232938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="H13">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="I13">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="J13">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>50.06895990632433</v>
+        <v>57.81903543968933</v>
       </c>
       <c r="R13">
-        <v>450.620639156919</v>
+        <v>520.3713189572039</v>
       </c>
       <c r="S13">
-        <v>0.003878806708861762</v>
+        <v>0.01400316103480144</v>
       </c>
       <c r="T13">
-        <v>0.003878806708861762</v>
+        <v>0.01400316103480144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="H14">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="I14">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="J14">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N14">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O14">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P14">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q14">
-        <v>2561.029131945149</v>
+        <v>1839.20959019259</v>
       </c>
       <c r="R14">
-        <v>23049.26218750634</v>
+        <v>16552.88631173331</v>
       </c>
       <c r="S14">
-        <v>0.1984011051390845</v>
+        <v>0.4454371795095514</v>
       </c>
       <c r="T14">
-        <v>0.1984011051390844</v>
+        <v>0.4454371795095513</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="H15">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="I15">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="J15">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q15">
-        <v>1527.216984853613</v>
+        <v>720.9838244642481</v>
       </c>
       <c r="R15">
-        <v>13744.95286368251</v>
+        <v>6488.854420178232</v>
       </c>
       <c r="S15">
-        <v>0.1183124134757506</v>
+        <v>0.1746146839130689</v>
       </c>
       <c r="T15">
-        <v>0.1183124134757506</v>
+        <v>0.1746146839130689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="H16">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="I16">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="J16">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N16">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O16">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P16">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q16">
-        <v>551.9546626882072</v>
+        <v>291.430547623608</v>
       </c>
       <c r="R16">
-        <v>4967.591964193865</v>
+        <v>2622.874928612472</v>
       </c>
       <c r="S16">
-        <v>0.04275953510174921</v>
+        <v>0.07058140727875971</v>
       </c>
       <c r="T16">
-        <v>0.0427595351017492</v>
+        <v>0.07058140727875969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="H17">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="I17">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="J17">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N17">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q17">
-        <v>1592.02772724901</v>
+        <v>764.3450317212551</v>
       </c>
       <c r="R17">
-        <v>14328.24954524109</v>
+        <v>6879.105285491295</v>
       </c>
       <c r="S17">
-        <v>0.1233332555879077</v>
+        <v>0.1851163113315448</v>
       </c>
       <c r="T17">
-        <v>0.1233332555879077</v>
+        <v>0.1851163113315447</v>
       </c>
     </row>
   </sheetData>
